--- a/paginas/control_apto/aspirantes_C3.xlsx
+++ b/paginas/control_apto/aspirantes_C3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1361">
   <si>
     <t>FOLIO DE REGISTRO</t>
   </si>
@@ -59,21 +59,24 @@
     <t>1993-03-06</t>
   </si>
   <si>
+    <t>NO LOCALIZADO</t>
+  </si>
+  <si>
+    <t>no se encuentra</t>
+  </si>
+  <si>
+    <t>NI20200003</t>
+  </si>
+  <si>
+    <t>ANA KAREN SANDOVAL  RAMOS</t>
+  </si>
+  <si>
+    <t>1993-03-07</t>
+  </si>
+  <si>
     <t>INTERESADO</t>
   </si>
   <si>
-    <t>NI20200003</t>
-  </si>
-  <si>
-    <t>ANA KAREN SANDOVAL  RAMOS</t>
-  </si>
-  <si>
-    <t>1993-03-07</t>
-  </si>
-  <si>
-    <t>ninguna</t>
-  </si>
-  <si>
     <t>NI20200004</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t>1993-03-10</t>
   </si>
   <si>
+    <t>NO INTERESADO</t>
+  </si>
+  <si>
     <t>NI20200007</t>
   </si>
   <si>
@@ -119,9 +125,6 @@
     <t>1993-03-12</t>
   </si>
   <si>
-    <t>NO INTERESADO</t>
-  </si>
-  <si>
     <t>NI20200010</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
     <t>1993-03-18</t>
   </si>
   <si>
+    <t>no son los telfonos de contacto</t>
+  </si>
+  <si>
     <t>NI20200015</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t>1993-03-19</t>
   </si>
   <si>
+    <t>se dejo recado con su esposa</t>
+  </si>
+  <si>
     <t>NI20200016</t>
   </si>
   <si>
@@ -188,6 +197,10 @@
     <t>1993-03-20</t>
   </si>
   <si>
+    <t xml:space="preserve">no responden las llamadas
+</t>
+  </si>
+  <si>
     <t>NI20200017</t>
   </si>
   <si>
@@ -296,7 +309,7 @@
     <t>NI20200029</t>
   </si>
   <si>
-    <t>JOS? SALVADOR HERNANDEZ CABALLERO</t>
+    <t>JOSÃ‰ SALVADOR HERNANDEZ CABALLERO</t>
   </si>
   <si>
     <t>1993-04-02</t>
@@ -635,7 +648,7 @@
     <t>2020-09-17</t>
   </si>
   <si>
-    <t>GABRIELA YASIRETH P?REZ GUZMAN</t>
+    <t>GABRIELA YASIRETH PÃ‰REZ GUZMAN</t>
   </si>
   <si>
     <t>1993-05-13</t>
@@ -653,6 +666,9 @@
     <t>1993-05-14</t>
   </si>
   <si>
+    <t>rtyryrt</t>
+  </si>
+  <si>
     <t>NI20200072</t>
   </si>
   <si>
@@ -662,6 +678,9 @@
     <t>1993-05-15</t>
   </si>
   <si>
+    <t>interesado</t>
+  </si>
+  <si>
     <t>NI20200073</t>
   </si>
   <si>
@@ -677,7 +696,7 @@
     <t>NI20200074</t>
   </si>
   <si>
-    <t>JOS? LUIS VELAZCO GARCIA</t>
+    <t>JOSÃ‰ LUIS VELAZCO GARCIA</t>
   </si>
   <si>
     <t>1993-05-17</t>
@@ -923,7 +942,7 @@
     <t>NI20200112</t>
   </si>
   <si>
-    <t>MART?N MU?OZ DURANGO</t>
+    <t>MARTÃN MUÃ‘OZ DURANGO</t>
   </si>
   <si>
     <t>1993-06-24</t>
@@ -953,7 +972,7 @@
     <t>NI20200115</t>
   </si>
   <si>
-    <t>ROSARIO YAZMIN  VELAZQUEZ NU?EZ</t>
+    <t>ROSARIO YAZMIN  VELAZQUEZ NUÃ‘EZ</t>
   </si>
   <si>
     <t>1993-06-27</t>
@@ -980,7 +999,7 @@
     <t>NI20200118</t>
   </si>
   <si>
-    <t xml:space="preserve">NAYELI COSTE?O  PEREZ </t>
+    <t xml:space="preserve">NAYELI COSTEÃ‘O  PEREZ </t>
   </si>
   <si>
     <t>1993-06-30</t>
@@ -1514,7 +1533,7 @@
     <t>NI20200182</t>
   </si>
   <si>
-    <t>ANTONELLA RIVERA DE LA PE?A</t>
+    <t>ANTONELLA RIVERA DE LA PEÃ‘A</t>
   </si>
   <si>
     <t>1993-09-02</t>
@@ -1583,7 +1602,7 @@
     <t>NI20200190</t>
   </si>
   <si>
-    <t>JOSE ENRIQUE AYON MU?OZ</t>
+    <t>JOSE ENRIQUE AYON MUÃ‘OZ</t>
   </si>
   <si>
     <t>1993-09-10</t>
@@ -1730,7 +1749,7 @@
     <t>NI20200205</t>
   </si>
   <si>
-    <t>LETICIA VILLAREAL PE?ALOZA</t>
+    <t>LETICIA VILLAREAL PEÃ‘ALOZA</t>
   </si>
   <si>
     <t>1993-09-25</t>
@@ -2444,7 +2463,7 @@
     <t>NI20200297</t>
   </si>
   <si>
-    <t>LAURA HERNANDEZ ORDO?EZ</t>
+    <t>LAURA HERNANDEZ ORDOÃ‘EZ</t>
   </si>
   <si>
     <t>1993-12-26</t>
@@ -2501,7 +2520,7 @@
     <t>2020-11-30</t>
   </si>
   <si>
-    <t>ARELI YOSELIN CARLOS MU?OZ</t>
+    <t>ARELI YOSELIN CARLOS MUÃ‘OZ</t>
   </si>
   <si>
     <t>1994-01-01</t>
@@ -2669,7 +2688,7 @@
     <t>NI20200340</t>
   </si>
   <si>
-    <t>JOSE DE JESUS GONZALEZ MU?OZ</t>
+    <t>JOSE DE JESUS GONZALEZ MUÃ‘OZ</t>
   </si>
   <si>
     <t>1994-02-07</t>
@@ -2786,7 +2805,7 @@
     <t>NI20200352</t>
   </si>
   <si>
-    <t>ALEJANDRO CEDE?O PORTILLA</t>
+    <t>ALEJANDRO CEDEÃ‘O PORTILLA</t>
   </si>
   <si>
     <t>1994-02-19</t>
@@ -3410,7 +3429,7 @@
     <t>2021-01-15</t>
   </si>
   <si>
-    <t>IVAN YOUSETHE MU?OZ VAZQUEZ</t>
+    <t>IVAN YOUSETHE MUÃ‘OZ VAZQUEZ</t>
   </si>
   <si>
     <t>1994-05-09</t>
@@ -4061,16 +4080,25 @@
     <t>1994-08-04</t>
   </si>
   <si>
-    <t>NI20210348</t>
-  </si>
-  <si>
-    <t>2021-04-07</t>
-  </si>
-  <si>
-    <t>CESAR SALINAS RAMIREZ</t>
-  </si>
-  <si>
-    <t>tiene conocimientos previos</t>
+    <t>NI20210349</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>PEREZ GIOVANI SANCHEZ</t>
+  </si>
+  <si>
+    <t>1994-12-11</t>
+  </si>
+  <si>
+    <t>NI20210350</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>CESAR MACHORRO PEREZ</t>
   </si>
 </sst>
 </file>
@@ -4409,7 +4437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J416"/>
+  <dimension ref="A1:J417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4488,20 +4516,22 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>24</v>
@@ -4514,24 +4544,22 @@
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>28</v>
@@ -4546,22 +4574,22 @@
         <v>2227250897</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -4576,22 +4604,22 @@
         <v>2224229750</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>36</v>
@@ -4606,22 +4634,22 @@
         <v>2221834549</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -4636,22 +4664,22 @@
         <v>2222583510</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>26</v>
@@ -4666,22 +4694,22 @@
         <v>2411359903</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J8"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>24</v>
@@ -4696,22 +4724,22 @@
         <v>2227182068</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J9"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>34</v>
@@ -4726,22 +4754,22 @@
         <v>2228543843</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J10"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>23</v>
@@ -4756,22 +4784,22 @@
         <v>2225493197</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>30</v>
@@ -4786,22 +4814,22 @@
         <v>2481541373</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J12"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>21</v>
@@ -4815,21 +4843,25 @@
       <c r="H13">
         <v>2224588108</v>
       </c>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>27</v>
@@ -4843,21 +4875,25 @@
       <c r="H14">
         <v>7647676794</v>
       </c>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>22</v>
@@ -4870,22 +4906,24 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15"/>
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -4900,22 +4938,22 @@
         <v>2221479353</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E17">
         <v>38</v>
@@ -4929,21 +4967,23 @@
       <c r="H17">
         <v>2222808798</v>
       </c>
-      <c r="I17"/>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>24</v>
@@ -4957,21 +4997,23 @@
       <c r="H18">
         <v>2481565602</v>
       </c>
-      <c r="I18"/>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>40</v>
@@ -4985,21 +5027,23 @@
       <c r="H19">
         <v>2482082859</v>
       </c>
-      <c r="I19"/>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E20">
         <v>34</v>
@@ -5013,21 +5057,23 @@
       <c r="H20">
         <v>2212729234</v>
       </c>
-      <c r="I20"/>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E21">
         <v>21</v>
@@ -5037,21 +5083,23 @@
       </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21"/>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -5065,21 +5113,23 @@
       <c r="H22">
         <v>2227216190</v>
       </c>
-      <c r="I22"/>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>34</v>
@@ -5093,21 +5143,23 @@
       <c r="H23">
         <v>2215282591</v>
       </c>
-      <c r="I23"/>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -5121,27 +5173,29 @@
       <c r="H24">
         <v>6437090</v>
       </c>
-      <c r="I24"/>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G25">
         <v>2227729091</v>
@@ -5149,21 +5203,23 @@
       <c r="H25">
         <v>2212503352</v>
       </c>
-      <c r="I25"/>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
       <c r="J25"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E26">
         <v>23</v>
@@ -5177,21 +5233,23 @@
       <c r="H26">
         <v>2212399003</v>
       </c>
-      <c r="I26"/>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
       <c r="J26"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <v>38</v>
@@ -5205,21 +5263,23 @@
       <c r="H27">
         <v>2213496010</v>
       </c>
-      <c r="I27"/>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
       <c r="J27"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -5233,21 +5293,23 @@
       <c r="H28">
         <v>2212570983</v>
       </c>
-      <c r="I28"/>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
       <c r="J28"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E29">
         <v>22</v>
@@ -5261,21 +5323,23 @@
       <c r="H29">
         <v>2213850712</v>
       </c>
-      <c r="I29"/>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
       <c r="J29"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E30">
         <v>22</v>
@@ -5289,21 +5353,23 @@
       <c r="H30">
         <v>2227660617</v>
       </c>
-      <c r="I30"/>
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>35</v>
@@ -5317,21 +5383,23 @@
       <c r="H31">
         <v>2461265022</v>
       </c>
-      <c r="I31"/>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
       <c r="J31"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -5345,21 +5413,23 @@
       <c r="H32">
         <v>2224876392</v>
       </c>
-      <c r="I32"/>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
       <c r="J32"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E33">
         <v>26</v>
@@ -5373,21 +5443,23 @@
       <c r="H33">
         <v>5554558535</v>
       </c>
-      <c r="I33"/>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
       <c r="J33"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <v>22</v>
@@ -5401,21 +5473,23 @@
       <c r="H34">
         <v>2224275251</v>
       </c>
-      <c r="I34"/>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E35">
         <v>31</v>
@@ -5429,21 +5503,23 @@
       <c r="H35">
         <v>222985388</v>
       </c>
-      <c r="I35"/>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E36">
         <v>22</v>
@@ -5457,21 +5533,23 @@
       <c r="H36">
         <v>2227764802</v>
       </c>
-      <c r="I36"/>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
       <c r="J36"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E37">
         <v>23</v>
@@ -5485,21 +5563,23 @@
       <c r="H37">
         <v>2227236464</v>
       </c>
-      <c r="I37"/>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
       <c r="J37"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E38">
         <v>30</v>
@@ -5513,21 +5593,23 @@
       <c r="H38">
         <v>2225317517</v>
       </c>
-      <c r="I38"/>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
       <c r="J38"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E39">
         <v>23</v>
@@ -5541,21 +5623,23 @@
       <c r="H39">
         <v>2337596299</v>
       </c>
-      <c r="I39"/>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
       <c r="J39"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E40">
         <v>25</v>
@@ -5569,21 +5653,23 @@
       <c r="H40">
         <v>233126239</v>
       </c>
-      <c r="I40"/>
+      <c r="I40" t="s">
+        <v>19</v>
+      </c>
       <c r="J40"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E41">
         <v>26</v>
@@ -5597,21 +5683,23 @@
       <c r="H41">
         <v>7571183725</v>
       </c>
-      <c r="I41"/>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
       <c r="J41"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E42">
         <v>23</v>
@@ -5625,21 +5713,23 @@
       <c r="H42">
         <v>222530871</v>
       </c>
-      <c r="I42"/>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
       <c r="J42"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E43">
         <v>29</v>
@@ -5651,21 +5741,23 @@
         <v>2222002756</v>
       </c>
       <c r="H43"/>
-      <c r="I43"/>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E44">
         <v>25</v>
@@ -5679,21 +5771,23 @@
       <c r="H44">
         <v>2212306931</v>
       </c>
-      <c r="I44"/>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
       <c r="J44"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E45">
         <v>34</v>
@@ -5705,21 +5799,23 @@
       <c r="H45">
         <v>22212039451</v>
       </c>
-      <c r="I45"/>
+      <c r="I45" t="s">
+        <v>19</v>
+      </c>
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E46">
         <v>23</v>
@@ -5731,21 +5827,23 @@
       <c r="H46">
         <v>2761045593</v>
       </c>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -5759,21 +5857,23 @@
       <c r="H47">
         <v>2223575578</v>
       </c>
-      <c r="I47"/>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
       <c r="J47"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E48">
         <v>32</v>
@@ -5787,21 +5887,23 @@
       <c r="H48">
         <v>2226754052</v>
       </c>
-      <c r="I48"/>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
       <c r="J48"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E49">
         <v>32</v>
@@ -5815,21 +5917,23 @@
       <c r="H49">
         <v>2213534813</v>
       </c>
-      <c r="I49"/>
+      <c r="I49" t="s">
+        <v>19</v>
+      </c>
       <c r="J49"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E50">
         <v>21</v>
@@ -5843,21 +5947,23 @@
       <c r="H50">
         <v>2226801225</v>
       </c>
-      <c r="I50"/>
+      <c r="I50" t="s">
+        <v>19</v>
+      </c>
       <c r="J50"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E51">
         <v>30</v>
@@ -5871,21 +5977,23 @@
       <c r="H51">
         <v>2227169926</v>
       </c>
-      <c r="I51"/>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
       <c r="J51"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E52">
         <v>40</v>
@@ -5899,21 +6007,23 @@
       <c r="H52">
         <v>5617192343</v>
       </c>
-      <c r="I52"/>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
       <c r="J52"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E53">
         <v>38</v>
@@ -5927,21 +6037,23 @@
       <c r="H53">
         <v>2226224462</v>
       </c>
-      <c r="I53"/>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
       <c r="J53"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E54">
         <v>22</v>
@@ -5955,21 +6067,23 @@
       <c r="H54">
         <v>2224005131</v>
       </c>
-      <c r="I54"/>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
       <c r="J54"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E55">
         <v>22</v>
@@ -5983,21 +6097,23 @@
       <c r="H55">
         <v>2211121796</v>
       </c>
-      <c r="I55"/>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
       <c r="J55"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E56">
         <v>38</v>
@@ -6011,21 +6127,23 @@
       <c r="H56">
         <v>2226095475</v>
       </c>
-      <c r="I56"/>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
       <c r="J56"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E57">
         <v>27</v>
@@ -6039,21 +6157,23 @@
       <c r="H57">
         <v>2227866411</v>
       </c>
-      <c r="I57"/>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
       <c r="J57"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C58" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E58">
         <v>26</v>
@@ -6067,21 +6187,23 @@
       <c r="H58">
         <v>2211491958</v>
       </c>
-      <c r="I58"/>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
       <c r="J58"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E59">
         <v>21</v>
@@ -6095,21 +6217,23 @@
       <c r="H59">
         <v>2212072919</v>
       </c>
-      <c r="I59"/>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
       <c r="J59"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E60">
         <v>22</v>
@@ -6123,21 +6247,23 @@
       <c r="H60">
         <v>2212606272</v>
       </c>
-      <c r="I60"/>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
       <c r="J60"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E61">
         <v>19</v>
@@ -6151,21 +6277,23 @@
       <c r="H61">
         <v>2215844546</v>
       </c>
-      <c r="I61"/>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
       <c r="J61"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E62">
         <v>30</v>
@@ -6179,21 +6307,23 @@
       <c r="H62">
         <v>2751051983</v>
       </c>
-      <c r="I62"/>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
       <c r="J62"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E63">
         <v>30</v>
@@ -6207,21 +6337,25 @@
       <c r="H63">
         <v>5548804589</v>
       </c>
-      <c r="I63"/>
-      <c r="J63"/>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E64">
         <v>27</v>
@@ -6233,27 +6367,31 @@
         <v>2228625175</v>
       </c>
       <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E65">
         <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G65">
         <v>5588236415</v>
@@ -6266,16 +6404,16 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D66" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E66">
         <v>41</v>
@@ -6294,16 +6432,16 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E67">
         <v>22</v>
@@ -6322,16 +6460,16 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E68">
         <v>25</v>
@@ -6350,16 +6488,16 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
         <v>229</v>
       </c>
-      <c r="B69" t="s">
-        <v>223</v>
-      </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E69">
         <v>22</v>
@@ -6378,16 +6516,16 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E70">
         <v>26</v>
@@ -6406,16 +6544,16 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E71">
         <v>26</v>
@@ -6434,16 +6572,16 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E72">
         <v>29</v>
@@ -6458,16 +6596,16 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E73">
         <v>29</v>
@@ -6484,16 +6622,16 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E74">
         <v>40</v>
@@ -6512,16 +6650,16 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" t="s">
         <v>248</v>
       </c>
-      <c r="B75" t="s">
-        <v>242</v>
-      </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E75">
         <v>25</v>
@@ -6540,16 +6678,16 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D76" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E76">
         <v>21</v>
@@ -6568,16 +6706,16 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B77" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C77" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D77" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E77">
         <v>24</v>
@@ -6596,16 +6734,16 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B78" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E78">
         <v>19</v>
@@ -6624,16 +6762,16 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D79" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E79">
         <v>21</v>
@@ -6648,16 +6786,16 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E80">
         <v>21</v>
@@ -6674,16 +6812,16 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D81" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E81">
         <v>24</v>
@@ -6700,16 +6838,16 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="E82">
         <v>21</v>
@@ -6728,16 +6866,16 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B83" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E83">
         <v>31</v>
@@ -6756,16 +6894,16 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" t="s">
         <v>279</v>
       </c>
-      <c r="B84" t="s">
-        <v>273</v>
-      </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E84">
         <v>27</v>
@@ -6784,16 +6922,16 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D85" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E85">
         <v>24</v>
@@ -6810,16 +6948,16 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E86">
         <v>23</v>
@@ -6834,16 +6972,16 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E87">
         <v>40</v>
@@ -6862,16 +7000,16 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E88">
         <v>34</v>
@@ -6890,16 +7028,16 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" t="s">
         <v>295</v>
       </c>
-      <c r="B89" t="s">
-        <v>289</v>
-      </c>
       <c r="C89" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E89">
         <v>37</v>
@@ -6918,16 +7056,16 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D90" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E90">
         <v>25</v>
@@ -6946,16 +7084,16 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C91" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E91">
         <v>27</v>
@@ -6974,16 +7112,16 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B92" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C92" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E92">
         <v>27</v>
@@ -7002,16 +7140,16 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B93" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C93" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E93">
         <v>22</v>
@@ -7030,16 +7168,16 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" t="s">
         <v>311</v>
       </c>
-      <c r="B94" t="s">
-        <v>305</v>
-      </c>
       <c r="C94" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -7058,16 +7196,16 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C95" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E95">
         <v>20</v>
@@ -7086,16 +7224,16 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B96" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D96" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E96">
         <v>26</v>
@@ -7114,16 +7252,16 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C97" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="E97">
         <v>22</v>
@@ -7140,16 +7278,16 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B98" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D98" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E98">
         <v>21</v>
@@ -7166,16 +7304,16 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B99" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C99" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D99" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -7192,16 +7330,16 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D100" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="E100">
         <v>20</v>
@@ -7220,16 +7358,16 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
+        <v>339</v>
+      </c>
+      <c r="B101" t="s">
         <v>333</v>
       </c>
-      <c r="B101" t="s">
-        <v>327</v>
-      </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D101" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E101">
         <v>38</v>
@@ -7248,16 +7386,16 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B102" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C102" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D102" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E102">
         <v>21</v>
@@ -7274,16 +7412,16 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B103" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C103" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D103" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="E103">
         <v>26</v>
@@ -7302,16 +7440,16 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B104" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D104" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E104">
         <v>24</v>
@@ -7330,16 +7468,16 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B105" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C105" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D105" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E105">
         <v>20</v>
@@ -7358,16 +7496,16 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C106" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D106" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E106">
         <v>33</v>
@@ -7386,16 +7524,16 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
+        <v>358</v>
+      </c>
+      <c r="B107" t="s">
         <v>352</v>
       </c>
-      <c r="B107" t="s">
-        <v>346</v>
-      </c>
       <c r="C107" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D107" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E107">
         <v>29</v>
@@ -7414,16 +7552,16 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B108" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D108" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E108">
         <v>35</v>
@@ -7442,16 +7580,16 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B109" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C109" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D109" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E109">
         <v>25</v>
@@ -7470,16 +7608,16 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C110" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D110" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E110">
         <v>23</v>
@@ -7498,16 +7636,16 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B111" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C111" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D111" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E111">
         <v>33</v>
@@ -7524,16 +7662,16 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" t="s">
         <v>369</v>
       </c>
-      <c r="B112" t="s">
-        <v>363</v>
-      </c>
       <c r="C112" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D112" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E112">
         <v>26</v>
@@ -7552,16 +7690,16 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B113" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C113" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E113">
         <v>25</v>
@@ -7578,16 +7716,16 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B114" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C114" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D114" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E114">
         <v>28</v>
@@ -7606,16 +7744,16 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C115" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D115" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E115">
         <v>35</v>
@@ -7634,16 +7772,16 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B116" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C116" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D116" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E116">
         <v>27</v>
@@ -7662,16 +7800,16 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
+        <v>391</v>
+      </c>
+      <c r="B117" t="s">
         <v>385</v>
       </c>
-      <c r="B117" t="s">
-        <v>379</v>
-      </c>
       <c r="C117" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D117" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E117">
         <v>29</v>
@@ -7690,16 +7828,16 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B118" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C118" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D118" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E118">
         <v>28</v>
@@ -7718,16 +7856,16 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C119" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D119" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E119">
         <v>23</v>
@@ -7746,16 +7884,16 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B120" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C120" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D120" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E120">
         <v>39</v>
@@ -7772,16 +7910,16 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" t="s">
         <v>398</v>
       </c>
-      <c r="B121" t="s">
-        <v>392</v>
-      </c>
       <c r="C121" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D121" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E121">
         <v>24</v>
@@ -7800,16 +7938,16 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C122" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D122" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E122">
         <v>26</v>
@@ -7828,16 +7966,16 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B123" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C123" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D123" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E123">
         <v>24</v>
@@ -7856,16 +7994,16 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
+        <v>414</v>
+      </c>
+      <c r="B124" t="s">
         <v>408</v>
       </c>
-      <c r="B124" t="s">
-        <v>402</v>
-      </c>
       <c r="C124" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D124" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E124">
         <v>21</v>
@@ -7884,16 +8022,16 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C125" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D125" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E125">
         <v>29</v>
@@ -7912,16 +8050,16 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B126" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C126" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D126" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E126">
         <v>32</v>
@@ -7940,22 +8078,22 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B127" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C127" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D127" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E127">
         <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G127">
         <v>2291577057</v>
@@ -7966,16 +8104,16 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B128" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C128" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D128" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E128">
         <v>31</v>
@@ -7994,16 +8132,16 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B129" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C129" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D129" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E129">
         <v>37</v>
@@ -8022,16 +8160,16 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B130" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C130" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D130" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="E130">
         <v>30</v>
@@ -8050,16 +8188,16 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B131" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="C131" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D131" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E131">
         <v>26</v>
@@ -8078,16 +8216,16 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B132" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C132" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D132" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="E132">
         <v>37</v>
@@ -8106,16 +8244,16 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B133" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C133" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D133" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="E133">
         <v>27</v>
@@ -8134,16 +8272,16 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
+        <v>447</v>
+      </c>
+      <c r="B134" t="s">
         <v>441</v>
       </c>
-      <c r="B134" t="s">
-        <v>435</v>
-      </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D134" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E134">
         <v>33</v>
@@ -8162,16 +8300,16 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B135" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C135" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D135" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E135">
         <v>19</v>
@@ -8188,16 +8326,16 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B136" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C136" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D136" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="E136">
         <v>24</v>
@@ -8216,16 +8354,16 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B137" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C137" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D137" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E137">
         <v>26</v>
@@ -8244,16 +8382,16 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
+        <v>460</v>
+      </c>
+      <c r="B138" t="s">
         <v>454</v>
       </c>
-      <c r="B138" t="s">
-        <v>448</v>
-      </c>
       <c r="C138" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D138" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E138">
         <v>25</v>
@@ -8272,16 +8410,16 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B139" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C139" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D139" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E139">
         <v>38</v>
@@ -8300,16 +8438,16 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B140" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C140" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D140" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E140">
         <v>26</v>
@@ -8328,16 +8466,16 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B141" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C141" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D141" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E141">
         <v>20</v>
@@ -8354,16 +8492,16 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B142" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C142" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D142" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E142">
         <v>24</v>
@@ -8382,16 +8520,16 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B143" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C143" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D143" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E143">
         <v>24</v>
@@ -8410,16 +8548,16 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B144" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C144" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D144" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E144">
         <v>18</v>
@@ -8438,16 +8576,16 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B145" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C145" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D145" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E145">
         <v>30</v>
@@ -8466,16 +8604,16 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
+        <v>485</v>
+      </c>
+      <c r="B146" t="s">
         <v>479</v>
       </c>
-      <c r="B146" t="s">
-        <v>473</v>
-      </c>
       <c r="C146" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D146" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E146">
         <v>27</v>
@@ -8494,16 +8632,16 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B147" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C147" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D147" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E147">
         <v>29</v>
@@ -8522,16 +8660,16 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B148" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C148" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D148" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E148">
         <v>19</v>
@@ -8550,16 +8688,16 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B149" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C149" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D149" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="E149">
         <v>31</v>
@@ -8578,16 +8716,16 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B150" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C150" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="E150">
         <v>27</v>
@@ -8606,16 +8744,16 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B151" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C151" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D151" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E151">
         <v>28</v>
@@ -8634,16 +8772,16 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
+        <v>504</v>
+      </c>
+      <c r="B152" t="s">
         <v>498</v>
       </c>
-      <c r="B152" t="s">
-        <v>492</v>
-      </c>
       <c r="C152" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D152" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E152">
         <v>33</v>
@@ -8660,16 +8798,16 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B153" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C153" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D153" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E153">
         <v>21</v>
@@ -8688,16 +8826,16 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B154" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C154" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D154" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E154">
         <v>40</v>
@@ -8716,16 +8854,16 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B155" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C155" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D155" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E155">
         <v>31</v>
@@ -8744,16 +8882,16 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B156" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C156" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D156" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="E156">
         <v>20</v>
@@ -8772,16 +8910,16 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B157" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C157" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D157" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="E157">
         <v>31</v>
@@ -8800,16 +8938,16 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B158" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C158" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D158" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E158">
         <v>21</v>
@@ -8828,16 +8966,16 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B159" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C159" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D159" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E159">
         <v>22</v>
@@ -8856,16 +8994,16 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B160" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C160" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D160" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="E160">
         <v>27</v>
@@ -8882,16 +9020,16 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B161" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C161" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D161" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="E161">
         <v>24</v>
@@ -8910,16 +9048,16 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B162" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C162" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D162" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="E162">
         <v>39</v>
@@ -8938,16 +9076,16 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B163" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C163" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D163" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E163">
         <v>19</v>
@@ -8966,16 +9104,16 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
+        <v>543</v>
+      </c>
+      <c r="B164" t="s">
         <v>537</v>
       </c>
-      <c r="B164" t="s">
-        <v>531</v>
-      </c>
       <c r="C164" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D164" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E164">
         <v>39</v>
@@ -8994,22 +9132,22 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B165" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C165" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D165" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E165">
         <v>26</v>
       </c>
       <c r="F165" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G165">
         <v>2212001906</v>
@@ -9022,16 +9160,16 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B166" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C166" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D166" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="E166">
         <v>31</v>
@@ -9050,16 +9188,16 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B167" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C167" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D167" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="E167">
         <v>27</v>
@@ -9078,16 +9216,16 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B168" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C168" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D168" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E168">
         <v>24</v>
@@ -9106,16 +9244,16 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B169" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C169" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D169" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="E169">
         <v>29</v>
@@ -9134,16 +9272,16 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
+        <v>564</v>
+      </c>
+      <c r="B170" t="s">
         <v>558</v>
       </c>
-      <c r="B170" t="s">
-        <v>552</v>
-      </c>
       <c r="C170" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D170" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="E170">
         <v>23</v>
@@ -9162,16 +9300,16 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B171" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C171" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D171" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E171">
         <v>22</v>
@@ -9190,16 +9328,16 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B172" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C172" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D172" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E172">
         <v>33</v>
@@ -9218,16 +9356,16 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B173" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C173" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D173" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="E173">
         <v>27</v>
@@ -9246,16 +9384,16 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B174" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C174" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D174" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E174">
         <v>20</v>
@@ -9274,16 +9412,16 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B175" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C175" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D175" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="E175">
         <v>27</v>
@@ -9302,16 +9440,16 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B176" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C176" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D176" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E176">
         <v>20</v>
@@ -9330,16 +9468,16 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B177" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C177" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D177" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="E177">
         <v>35</v>
@@ -9356,16 +9494,16 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B178" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C178" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D178" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E178">
         <v>28</v>
@@ -9384,16 +9522,16 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
+        <v>592</v>
+      </c>
+      <c r="B179" t="s">
         <v>586</v>
       </c>
-      <c r="B179" t="s">
-        <v>580</v>
-      </c>
       <c r="C179" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D179" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="E179">
         <v>29</v>
@@ -9412,22 +9550,22 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B180" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C180" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D180" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E180">
         <v>26</v>
       </c>
       <c r="F180" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="G180">
         <v>2222657880</v>
@@ -9440,16 +9578,16 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B181" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C181" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D181" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="E181">
         <v>20</v>
@@ -9468,16 +9606,16 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B182" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C182" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D182" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E182">
         <v>19</v>
@@ -9496,16 +9634,16 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
+        <v>606</v>
+      </c>
+      <c r="B183" t="s">
         <v>600</v>
       </c>
-      <c r="B183" t="s">
-        <v>594</v>
-      </c>
       <c r="C183" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D183" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="E183">
         <v>25</v>
@@ -9524,16 +9662,16 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B184" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C184" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D184" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E184">
         <v>36</v>
@@ -9552,16 +9690,16 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B185" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C185" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D185" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E185">
         <v>21</v>
@@ -9578,16 +9716,16 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B186" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C186" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D186" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="E186">
         <v>24</v>
@@ -9606,16 +9744,16 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B187" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C187" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D187" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="E187">
         <v>31</v>
@@ -9632,16 +9770,16 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B188" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C188" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D188" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="E188">
         <v>24</v>
@@ -9660,16 +9798,16 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
+        <v>627</v>
+      </c>
+      <c r="B189" t="s">
         <v>621</v>
       </c>
-      <c r="B189" t="s">
-        <v>615</v>
-      </c>
       <c r="C189" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D189" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E189">
         <v>38</v>
@@ -9686,16 +9824,16 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B190" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C190" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D190" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="E190">
         <v>24</v>
@@ -9712,16 +9850,16 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B191" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C191" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D191" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E191">
         <v>29</v>
@@ -9740,16 +9878,16 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B192" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C192" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D192" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E192">
         <v>39</v>
@@ -9768,16 +9906,16 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B193" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C193" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D193" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E193">
         <v>27</v>
@@ -9796,16 +9934,16 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B194" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C194" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D194" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="E194">
         <v>33</v>
@@ -9824,16 +9962,16 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
+        <v>647</v>
+      </c>
+      <c r="B195" t="s">
         <v>641</v>
       </c>
-      <c r="B195" t="s">
-        <v>635</v>
-      </c>
       <c r="C195" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D195" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E195">
         <v>23</v>
@@ -9852,16 +9990,16 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B196" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C196" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D196" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E196">
         <v>25</v>
@@ -9880,16 +10018,16 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B197" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C197" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D197" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E197">
         <v>33</v>
@@ -9906,16 +10044,16 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
+        <v>657</v>
+      </c>
+      <c r="B198" t="s">
         <v>651</v>
       </c>
-      <c r="B198" t="s">
-        <v>645</v>
-      </c>
       <c r="C198" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D198" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="E198">
         <v>35</v>
@@ -9934,16 +10072,16 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B199" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C199" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D199" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E199">
         <v>21</v>
@@ -9958,16 +10096,16 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B200" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C200" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D200" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="E200">
         <v>34</v>
@@ -9984,16 +10122,16 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
+        <v>667</v>
+      </c>
+      <c r="B201" t="s">
         <v>661</v>
       </c>
-      <c r="B201" t="s">
-        <v>655</v>
-      </c>
       <c r="C201" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D201" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="E201">
         <v>22</v>
@@ -10010,16 +10148,16 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B202" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C202" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D202" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E202">
         <v>39</v>
@@ -10038,16 +10176,16 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B203" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C203" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D203" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E203">
         <v>37</v>
@@ -10066,16 +10204,16 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
+        <v>677</v>
+      </c>
+      <c r="B204" t="s">
         <v>671</v>
       </c>
-      <c r="B204" t="s">
-        <v>665</v>
-      </c>
       <c r="C204" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D204" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E204">
         <v>23</v>
@@ -10094,16 +10232,16 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B205" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C205" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D205" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="E205">
         <v>36</v>
@@ -10122,16 +10260,16 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B206" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C206" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="D206" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="E206">
         <v>31</v>
@@ -10150,16 +10288,16 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B207" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C207" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="D207" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="E207">
         <v>27</v>
@@ -10178,16 +10316,16 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B208" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C208" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D208" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="E208">
         <v>24</v>
@@ -10206,16 +10344,16 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B209" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C209" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D209" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E209">
         <v>37</v>
@@ -10234,16 +10372,16 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B210" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C210" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D210" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E210">
         <v>26</v>
@@ -10262,16 +10400,16 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
+        <v>700</v>
+      </c>
+      <c r="B211" t="s">
         <v>694</v>
       </c>
-      <c r="B211" t="s">
-        <v>688</v>
-      </c>
       <c r="C211" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D211" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="E211">
         <v>27</v>
@@ -10290,16 +10428,16 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B212" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C212" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D212" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E212">
         <v>21</v>
@@ -10318,16 +10456,16 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B213" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C213" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D213" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="E213">
         <v>29</v>
@@ -10344,16 +10482,16 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B214" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C214" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D214" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="E214">
         <v>21</v>
@@ -10370,16 +10508,16 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B215" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C215" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D215" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E215">
         <v>32</v>
@@ -10396,16 +10534,16 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B216" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C216" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D216" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="E216">
         <v>24</v>
@@ -10422,16 +10560,16 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B217" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C217" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D217" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="E217">
         <v>23</v>
@@ -10448,16 +10586,16 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B218" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C218" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D218" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="E218">
         <v>27</v>
@@ -10474,16 +10612,16 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B219" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C219" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D219" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="E219">
         <v>21</v>
@@ -10498,16 +10636,16 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
+        <v>728</v>
+      </c>
+      <c r="B220" t="s">
         <v>722</v>
       </c>
-      <c r="B220" t="s">
-        <v>716</v>
-      </c>
       <c r="C220" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D220" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="E220">
         <v>38</v>
@@ -10524,16 +10662,16 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B221" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C221" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="D221" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E221">
         <v>38</v>
@@ -10552,16 +10690,16 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B222" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C222" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="D222" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="E222">
         <v>29</v>
@@ -10580,16 +10718,16 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B223" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C223" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D223" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E223">
         <v>35</v>
@@ -10608,16 +10746,16 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B224" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C224" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="D224" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="E224">
         <v>25</v>
@@ -10636,16 +10774,16 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
+        <v>744</v>
+      </c>
+      <c r="B225" t="s">
         <v>738</v>
       </c>
-      <c r="B225" t="s">
-        <v>732</v>
-      </c>
       <c r="C225" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D225" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="E225">
         <v>28</v>
@@ -10664,16 +10802,16 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="B226" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C226" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D226" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E226">
         <v>21</v>
@@ -10692,16 +10830,16 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="B227" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C227" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D227" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="E227">
         <v>24</v>
@@ -10718,16 +10856,16 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B228" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C228" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="D228" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="E228">
         <v>18</v>
@@ -10746,16 +10884,16 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="B229" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C229" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="D229" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="E229">
         <v>22</v>
@@ -10774,16 +10912,16 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B230" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C230" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D230" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E230">
         <v>21</v>
@@ -10802,16 +10940,16 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B231" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C231" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D231" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="E231">
         <v>30</v>
@@ -10830,16 +10968,16 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
+        <v>766</v>
+      </c>
+      <c r="B232" t="s">
         <v>760</v>
       </c>
-      <c r="B232" t="s">
-        <v>754</v>
-      </c>
       <c r="C232" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D232" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E232">
         <v>22</v>
@@ -10858,16 +10996,16 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B233" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C233" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="D233" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="E233">
         <v>24</v>
@@ -10886,16 +11024,16 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B234" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C234" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D234" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="E234">
         <v>20</v>
@@ -10914,16 +11052,16 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B235" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C235" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D235" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="E235">
         <v>39</v>
@@ -10942,16 +11080,16 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B236" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C236" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D236" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="E236">
         <v>20</v>
@@ -10968,16 +11106,16 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B237" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C237" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="D237" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="E237">
         <v>40</v>
@@ -10996,16 +11134,16 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="B238" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C238" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D238" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="E238">
         <v>36</v>
@@ -11024,16 +11162,16 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" t="s">
+        <v>790</v>
+      </c>
+      <c r="B239" t="s">
         <v>784</v>
       </c>
-      <c r="B239" t="s">
-        <v>778</v>
-      </c>
       <c r="C239" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="D239" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="E239">
         <v>28</v>
@@ -11052,16 +11190,16 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B240" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C240" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="D240" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="E240">
         <v>31</v>
@@ -11080,16 +11218,16 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B241" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C241" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="D241" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="E241">
         <v>36</v>
@@ -11108,16 +11246,16 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B242" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C242" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="D242" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="E242">
         <v>33</v>
@@ -11136,16 +11274,16 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
+        <v>804</v>
+      </c>
+      <c r="B243" t="s">
         <v>798</v>
       </c>
-      <c r="B243" t="s">
-        <v>792</v>
-      </c>
       <c r="C243" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D243" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="E243">
         <v>27</v>
@@ -11164,16 +11302,16 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="B244" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C244" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="D244" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="E244">
         <v>38</v>
@@ -11192,16 +11330,16 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B245" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C245" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D245" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E245">
         <v>23</v>
@@ -11220,16 +11358,16 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
+        <v>814</v>
+      </c>
+      <c r="B246" t="s">
         <v>808</v>
       </c>
-      <c r="B246" t="s">
-        <v>802</v>
-      </c>
       <c r="C246" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D246" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="E246">
         <v>35</v>
@@ -11248,16 +11386,16 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="B247" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C247" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="D247" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="E247">
         <v>31</v>
@@ -11276,16 +11414,16 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B248" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C248" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D248" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="E248">
         <v>26</v>
@@ -11304,16 +11442,16 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B249" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C249" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D249" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="E249">
         <v>25</v>
@@ -11332,16 +11470,16 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="B250" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C250" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D250" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="E250">
         <v>22</v>
@@ -11360,16 +11498,16 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="B251" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C251" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D251" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="E251">
         <v>39</v>
@@ -11388,16 +11526,16 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B252" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C252" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D252" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="E252">
         <v>24</v>
@@ -11416,16 +11554,16 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B253" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C253" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="D253" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="E253">
         <v>28</v>
@@ -11444,16 +11582,16 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" t="s">
+        <v>839</v>
+      </c>
+      <c r="B254" t="s">
         <v>833</v>
       </c>
-      <c r="B254" t="s">
-        <v>827</v>
-      </c>
       <c r="C254" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="D254" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="E254">
         <v>20</v>
@@ -11472,16 +11610,16 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B255" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C255" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="D255" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="E255">
         <v>37</v>
@@ -11500,16 +11638,16 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B256" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C256" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D256" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E256">
         <v>26</v>
@@ -11528,16 +11666,16 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="B257" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C257" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="D257" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E257">
         <v>22</v>
@@ -11556,16 +11694,16 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" t="s">
+        <v>853</v>
+      </c>
+      <c r="B258" t="s">
         <v>847</v>
       </c>
-      <c r="B258" t="s">
-        <v>841</v>
-      </c>
       <c r="C258" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D258" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E258">
         <v>33</v>
@@ -11584,16 +11722,16 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B259" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C259" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="D259" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E259">
         <v>35</v>
@@ -11612,16 +11750,16 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="B260" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C260" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="D260" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E260">
         <v>31</v>
@@ -11640,16 +11778,16 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="B261" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C261" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="D261" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="E261">
         <v>24</v>
@@ -11668,16 +11806,16 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B262" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C262" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="D262" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="E262">
         <v>32</v>
@@ -11696,16 +11834,16 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B263" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C263" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="D263" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="E263">
         <v>23</v>
@@ -11724,16 +11862,16 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" t="s">
+        <v>873</v>
+      </c>
+      <c r="B264" t="s">
         <v>867</v>
       </c>
-      <c r="B264" t="s">
-        <v>861</v>
-      </c>
       <c r="C264" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="D264" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="E264">
         <v>27</v>
@@ -11752,16 +11890,16 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="B265" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C265" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D265" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="E265">
         <v>33</v>
@@ -11780,16 +11918,16 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B266" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C266" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="D266" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="E266">
         <v>19</v>
@@ -11808,16 +11946,16 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="B267" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C267" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="D267" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="E267">
         <v>19</v>
@@ -11836,16 +11974,16 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" t="s">
+        <v>886</v>
+      </c>
+      <c r="B268" t="s">
         <v>880</v>
       </c>
-      <c r="B268" t="s">
-        <v>874</v>
-      </c>
       <c r="C268" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="D268" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="E268">
         <v>24</v>
@@ -11864,16 +12002,16 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="B269" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C269" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="D269" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="E269">
         <v>32</v>
@@ -11892,16 +12030,16 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="B270" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C270" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="D270" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="E270">
         <v>19</v>
@@ -11920,16 +12058,16 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="B271" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C271" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="D271" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="E271">
         <v>26</v>
@@ -11948,16 +12086,16 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B272" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C272" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="D272" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="E272">
         <v>19</v>
@@ -11976,16 +12114,16 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
+        <v>902</v>
+      </c>
+      <c r="B273" t="s">
         <v>896</v>
       </c>
-      <c r="B273" t="s">
-        <v>890</v>
-      </c>
       <c r="C273" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D273" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E273">
         <v>39</v>
@@ -12004,16 +12142,16 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="B274" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C274" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="D274" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="E274">
         <v>28</v>
@@ -12032,16 +12170,16 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="B275" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C275" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="D275" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="E275">
         <v>25</v>
@@ -12060,16 +12198,16 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="B276" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C276" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="D276" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="E276">
         <v>24</v>
@@ -12088,16 +12226,16 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" t="s">
+        <v>915</v>
+      </c>
+      <c r="B277" t="s">
         <v>909</v>
       </c>
-      <c r="B277" t="s">
-        <v>903</v>
-      </c>
       <c r="C277" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="D277" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="E277">
         <v>21</v>
@@ -12116,16 +12254,16 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="B278" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C278" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="D278" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="E278">
         <v>22</v>
@@ -12144,16 +12282,16 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="B279" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C279" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="D279" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="E279">
         <v>19</v>
@@ -12172,16 +12310,16 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="B280" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C280" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="D280" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="E280">
         <v>28</v>
@@ -12200,16 +12338,16 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" t="s">
+        <v>928</v>
+      </c>
+      <c r="B281" t="s">
         <v>922</v>
       </c>
-      <c r="B281" t="s">
-        <v>916</v>
-      </c>
       <c r="C281" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="D281" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="E281">
         <v>26</v>
@@ -12228,16 +12366,16 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="B282" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C282" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="D282" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="E282">
         <v>35</v>
@@ -12256,16 +12394,16 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B283" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C283" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="D283" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="E283">
         <v>24</v>
@@ -12284,16 +12422,16 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="B284" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C284" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="D284" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="E284">
         <v>26</v>
@@ -12312,16 +12450,16 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="B285" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="C285" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="D285" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="E285">
         <v>20</v>
@@ -12340,16 +12478,16 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="B286" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C286" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="D286" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="E286">
         <v>23</v>
@@ -12368,16 +12506,16 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="B287" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="C287" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D287" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="E287">
         <v>26</v>
@@ -12396,16 +12534,16 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="B288" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C288" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="D288" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="E288">
         <v>40</v>
@@ -12424,16 +12562,16 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="B289" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C289" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="D289" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="E289">
         <v>29</v>
@@ -12452,16 +12590,16 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="B290" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C290" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="D290" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="E290">
         <v>23</v>
@@ -12480,16 +12618,16 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" t="s">
+        <v>961</v>
+      </c>
+      <c r="B291" t="s">
         <v>955</v>
       </c>
-      <c r="B291" t="s">
-        <v>949</v>
-      </c>
       <c r="C291" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="D291" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="E291">
         <v>34</v>
@@ -12508,16 +12646,16 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="B292" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C292" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="D292" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="E292">
         <v>25</v>
@@ -12536,16 +12674,16 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="B293" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C293" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="D293" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="E293">
         <v>19</v>
@@ -12564,16 +12702,16 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="B294" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C294" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D294" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="E294">
         <v>23</v>
@@ -12592,16 +12730,16 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="B295" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C295" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D295" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="E295">
         <v>20</v>
@@ -12620,16 +12758,16 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="B296" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="C296" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D296" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="E296">
         <v>22</v>
@@ -12648,16 +12786,16 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="B297" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C297" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D297" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="E297">
         <v>29</v>
@@ -12676,16 +12814,16 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B298" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="C298" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D298" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="E298">
         <v>25</v>
@@ -12704,16 +12842,16 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="B299" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="C299" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="D299" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="E299">
         <v>21</v>
@@ -12732,16 +12870,16 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="B300" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="C300" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="D300" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="E300">
         <v>19</v>
@@ -12760,16 +12898,16 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" t="s">
+        <v>993</v>
+      </c>
+      <c r="B301" t="s">
         <v>987</v>
       </c>
-      <c r="B301" t="s">
-        <v>981</v>
-      </c>
       <c r="C301" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="D301" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E301">
         <v>20</v>
@@ -12788,16 +12926,16 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="B302" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="C302" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="D302" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E302">
         <v>21</v>
@@ -12816,16 +12954,16 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B303" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C303" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="D303" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="E303">
         <v>28</v>
@@ -12844,16 +12982,16 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="B304" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C304" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="D304" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E304">
         <v>26</v>
@@ -12872,16 +13010,16 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B305" t="s">
         <v>1000</v>
       </c>
-      <c r="B305" t="s">
-        <v>994</v>
-      </c>
       <c r="C305" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D305" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E305">
         <v>20</v>
@@ -12900,16 +13038,16 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="B306" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C306" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D306" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E306">
         <v>20</v>
@@ -12928,16 +13066,16 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B307" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="C307" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D307" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="E307">
         <v>21</v>
@@ -12956,16 +13094,16 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B308" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C308" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="D308" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="E308">
         <v>23</v>
@@ -12984,16 +13122,16 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="B309" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C309" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D309" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="E309">
         <v>36</v>
@@ -13012,16 +13150,16 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B310" t="s">
         <v>1016</v>
       </c>
-      <c r="B310" t="s">
-        <v>1010</v>
-      </c>
       <c r="C310" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="D310" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="E310">
         <v>24</v>
@@ -13040,16 +13178,16 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B311" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C311" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="D311" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="E311">
         <v>31</v>
@@ -13068,16 +13206,16 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="B312" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C312" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="D312" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="E312">
         <v>26</v>
@@ -13096,16 +13234,16 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B313" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C313" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="D313" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="E313">
         <v>31</v>
@@ -13124,16 +13262,16 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="B314" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C314" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D314" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="E314">
         <v>29</v>
@@ -13152,16 +13290,16 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="B315" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C315" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="D315" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="E315">
         <v>30</v>
@@ -13180,16 +13318,16 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="B316" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C316" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="D316" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="E316">
         <v>25</v>
@@ -13206,16 +13344,16 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="B317" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C317" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="D317" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="E317">
         <v>27</v>
@@ -13232,16 +13370,16 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B318" t="s">
         <v>1041</v>
       </c>
-      <c r="B318" t="s">
-        <v>1035</v>
-      </c>
       <c r="C318" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="D318" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="E318">
         <v>27</v>
@@ -13260,16 +13398,16 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B319" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C319" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D319" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="E319">
         <v>32</v>
@@ -13288,16 +13426,16 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B320" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C320" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="D320" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="E320">
         <v>22</v>
@@ -13316,16 +13454,16 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B321" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C321" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="D321" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="E321">
         <v>26</v>
@@ -13344,16 +13482,16 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="B322" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C322" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="D322" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="E322">
         <v>20</v>
@@ -13372,16 +13510,16 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B323" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C323" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="D323" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="E323">
         <v>25</v>
@@ -13400,16 +13538,16 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B324" t="s">
         <v>1060</v>
       </c>
-      <c r="B324" t="s">
-        <v>1054</v>
-      </c>
       <c r="C324" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="D324" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="E324">
         <v>28</v>
@@ -13428,16 +13566,16 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B325" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C325" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="D325" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="E325">
         <v>19</v>
@@ -13456,16 +13594,16 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="B326" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C326" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="D326" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="E326">
         <v>25</v>
@@ -13484,16 +13622,16 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="B327" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="C327" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="D327" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="E327">
         <v>21</v>
@@ -13512,16 +13650,16 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="B328" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C328" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="D328" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="E328">
         <v>20</v>
@@ -13540,16 +13678,16 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="B329" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C329" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="D329" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="E329">
         <v>23</v>
@@ -13568,16 +13706,16 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B330" t="s">
         <v>1079</v>
       </c>
-      <c r="B330" t="s">
-        <v>1073</v>
-      </c>
       <c r="C330" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="D330" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="E330">
         <v>27</v>
@@ -13596,16 +13734,16 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B331" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C331" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="D331" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="E331">
         <v>29</v>
@@ -13622,16 +13760,16 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="B332" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C332" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="D332" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="E332">
         <v>19</v>
@@ -13650,16 +13788,16 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="B333" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C333" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="D333" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="E333">
         <v>35</v>
@@ -13678,16 +13816,16 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="B334" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C334" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="D334" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="E334">
         <v>34</v>
@@ -13706,16 +13844,16 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B335" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C335" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="D335" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="E335">
         <v>25</v>
@@ -13734,16 +13872,16 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="B336" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="C336" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="D336" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="E336">
         <v>22</v>
@@ -13762,16 +13900,16 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="B337" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C337" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="D337" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="E337">
         <v>19</v>
@@ -13790,16 +13928,16 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="B338" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C338" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="D338" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="E338">
         <v>23</v>
@@ -13818,16 +13956,16 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="B339" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="C339" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="D339" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="E339">
         <v>18</v>
@@ -13846,16 +13984,16 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="B340" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="C340" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="D340" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="E340">
         <v>32</v>
@@ -13874,16 +14012,16 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="B341" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="C341" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="D341" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="E341">
         <v>25</v>
@@ -13902,16 +14040,16 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B342" t="s">
         <v>1117</v>
       </c>
-      <c r="B342" t="s">
-        <v>1111</v>
-      </c>
       <c r="C342" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="D342" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="E342">
         <v>34</v>
@@ -13930,16 +14068,16 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="B343" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="C343" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="D343" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="E343">
         <v>29</v>
@@ -13958,16 +14096,16 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="B344" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="C344" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="D344" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="E344">
         <v>22</v>
@@ -13986,16 +14124,16 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="B345" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="C345" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="D345" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="E345">
         <v>25</v>
@@ -14014,16 +14152,16 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="B346" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C346" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="D346" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="E346">
         <v>30</v>
@@ -14042,16 +14180,16 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="B347" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C347" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="D347" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="E347">
         <v>24</v>
@@ -14070,16 +14208,16 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B348" t="s">
         <v>1136</v>
       </c>
-      <c r="B348" t="s">
-        <v>1130</v>
-      </c>
       <c r="C348" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="D348" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="E348">
         <v>21</v>
@@ -14098,16 +14236,16 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="B349" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C349" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="D349" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="E349">
         <v>39</v>
@@ -14126,16 +14264,16 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="B350" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C350" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="D350" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="E350">
         <v>28</v>
@@ -14154,16 +14292,16 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="B351" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C351" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="D351" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="E351">
         <v>28</v>
@@ -14182,16 +14320,16 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="B352" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C352" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="D352" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="E352">
         <v>28</v>
@@ -14210,16 +14348,16 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B353" t="s">
         <v>1152</v>
       </c>
-      <c r="B353" t="s">
-        <v>1146</v>
-      </c>
       <c r="C353" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="D353" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="E353">
         <v>27</v>
@@ -14238,16 +14376,16 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="B354" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C354" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="D354" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="E354">
         <v>23</v>
@@ -14266,16 +14404,16 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="B355" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C355" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="D355" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="E355">
         <v>22</v>
@@ -14294,16 +14432,16 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="B356" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C356" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="D356" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="E356">
         <v>36</v>
@@ -14322,16 +14460,16 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="B357" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C357" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="D357" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="E357">
         <v>30</v>
@@ -14350,16 +14488,16 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="B358" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C358" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="D358" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="E358">
         <v>18</v>
@@ -14378,16 +14516,16 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="B359" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C359" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="D359" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="E359">
         <v>36</v>
@@ -14406,16 +14544,16 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="B360" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C360" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="D360" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="E360">
         <v>21</v>
@@ -14434,16 +14572,16 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="B361" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C361" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="D361" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="E361">
         <v>28</v>
@@ -14462,16 +14600,16 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="B362" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="C362" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="D362" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="E362">
         <v>23</v>
@@ -14490,16 +14628,16 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="B363" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C363" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="D363" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="E363">
         <v>24</v>
@@ -14518,16 +14656,16 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="B364" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C364" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="D364" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="E364">
         <v>29</v>
@@ -14546,16 +14684,16 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B365" t="s">
         <v>1189</v>
       </c>
-      <c r="B365" t="s">
-        <v>1183</v>
-      </c>
       <c r="C365" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="D365" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="E365">
         <v>23</v>
@@ -14574,16 +14712,16 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="B366" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C366" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="D366" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="E366">
         <v>24</v>
@@ -14602,16 +14740,16 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="B367" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C367" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="D367" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="E367">
         <v>22</v>
@@ -14630,16 +14768,16 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="B368" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C368" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="D368" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="E368">
         <v>22</v>
@@ -14658,16 +14796,16 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="B369" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C369" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="D369" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="E369">
         <v>25</v>
@@ -14686,16 +14824,16 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="B370" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C370" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="D370" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="E370">
         <v>36</v>
@@ -14714,16 +14852,16 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="B371" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="C371" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="D371" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="E371">
         <v>28</v>
@@ -14742,16 +14880,16 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="B372" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C372" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="D372" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="E372">
         <v>27</v>
@@ -14770,16 +14908,16 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="B373" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C373" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="D373" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="E373">
         <v>25</v>
@@ -14798,16 +14936,16 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B374" t="s">
         <v>1217</v>
       </c>
-      <c r="B374" t="s">
-        <v>1211</v>
-      </c>
       <c r="C374" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="D374" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="E374">
         <v>20</v>
@@ -14826,16 +14964,16 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="B375" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C375" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="D375" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="E375">
         <v>29</v>
@@ -14854,16 +14992,16 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="B376" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C376" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="D376" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="E376">
         <v>19</v>
@@ -14882,16 +15020,16 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="B377" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C377" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="D377" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="E377">
         <v>22</v>
@@ -14910,16 +15048,16 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="B378" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C378" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="D378" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="E378">
         <v>34</v>
@@ -14938,16 +15076,16 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="B379" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C379" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="D379" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="E379">
         <v>23</v>
@@ -14966,16 +15104,16 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="B380" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C380" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="D380" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="E380">
         <v>29</v>
@@ -14994,16 +15132,16 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="B381" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C381" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="D381" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="E381">
         <v>27</v>
@@ -15022,16 +15160,16 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="B382" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C382" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="D382" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="E382">
         <v>36</v>
@@ -15050,16 +15188,16 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="B383" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C383" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="D383" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="E383">
         <v>22</v>
@@ -15078,16 +15216,16 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="B384" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="C384" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="D384" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="E384">
         <v>20</v>
@@ -15106,16 +15244,16 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="B385" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="C385" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="D385" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="E385">
         <v>21</v>
@@ -15134,16 +15272,16 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="B386" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="C386" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="D386" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="E386">
         <v>19</v>
@@ -15162,16 +15300,16 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="B387" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="C387" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="D387" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="E387">
         <v>23</v>
@@ -15190,16 +15328,16 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="B388" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="C388" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="D388" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="E388">
         <v>29</v>
@@ -15218,16 +15356,16 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B389" t="s">
         <v>1264</v>
       </c>
-      <c r="B389" t="s">
-        <v>1258</v>
-      </c>
       <c r="C389" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="D389" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="E389">
         <v>39</v>
@@ -15246,16 +15384,16 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="B390" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C390" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="D390" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="E390">
         <v>36</v>
@@ -15274,16 +15412,16 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="B391" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C391" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="D391" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="E391">
         <v>35</v>
@@ -15302,16 +15440,16 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B392" t="s">
         <v>1274</v>
       </c>
-      <c r="B392" t="s">
-        <v>1268</v>
-      </c>
       <c r="C392" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="D392" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="E392">
         <v>19</v>
@@ -15330,16 +15468,16 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="B393" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C393" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="D393" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="E393">
         <v>35</v>
@@ -15358,16 +15496,16 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="B394" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C394" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="D394" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="E394">
         <v>20</v>
@@ -15386,16 +15524,16 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="B395" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C395" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="D395" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="E395">
         <v>20</v>
@@ -15414,16 +15552,16 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="B396" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="C396" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="D396" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="E396">
         <v>27</v>
@@ -15442,16 +15580,16 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="B397" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C397" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="D397" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="E397">
         <v>28</v>
@@ -15470,16 +15608,16 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="B398" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C398" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
       <c r="D398" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="E398">
         <v>18</v>
@@ -15498,16 +15636,16 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B399" t="s">
         <v>1296</v>
       </c>
-      <c r="B399" t="s">
-        <v>1290</v>
-      </c>
       <c r="C399" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="D399" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="E399">
         <v>24</v>
@@ -15526,16 +15664,16 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="B400" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C400" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="D400" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="E400">
         <v>36</v>
@@ -15552,16 +15690,16 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="B401" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C401" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="D401" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="E401">
         <v>34</v>
@@ -15580,16 +15718,16 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="B402" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C402" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="D402" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="E402">
         <v>27</v>
@@ -15608,16 +15746,16 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="B403" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C403" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="D403" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="E403">
         <v>26</v>
@@ -15636,16 +15774,16 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="B404" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C404" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="D404" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="E404">
         <v>19</v>
@@ -15664,16 +15802,16 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="B405" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C405" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="D405" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="E405">
         <v>23</v>
@@ -15692,16 +15830,16 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="B406" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C406" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="D406" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="E406">
         <v>34</v>
@@ -15720,16 +15858,16 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="B407" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C407" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="D407" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="E407">
         <v>22</v>
@@ -15748,16 +15886,16 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="B408" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C408" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="D408" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="E408">
         <v>36</v>
@@ -15776,16 +15914,16 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="B409" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C409" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="D409" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="E409">
         <v>21</v>
@@ -15804,16 +15942,16 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B410" t="s">
         <v>1330</v>
       </c>
-      <c r="B410" t="s">
-        <v>1324</v>
-      </c>
       <c r="C410" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="D410" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="E410">
         <v>39</v>
@@ -15832,16 +15970,16 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="B411" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C411" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="D411" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="E411">
         <v>28</v>
@@ -15860,16 +15998,16 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="B412" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C412" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="D412" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="E412">
         <v>33</v>
@@ -15888,16 +16026,16 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="B413" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C413" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="D413" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="E413">
         <v>26</v>
@@ -15916,16 +16054,16 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="B414" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C414" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="D414" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="E414">
         <v>23</v>
@@ -15944,16 +16082,16 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="B415" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="C415" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="D415" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="E415">
         <v>30</v>
@@ -15972,35 +16110,51 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="B416" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="C416" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="D416" t="s">
-        <v>769</v>
+        <v>1357</v>
       </c>
       <c r="E416">
+        <v>26</v>
+      </c>
+      <c r="F416">
+        <v>2223558970</v>
+      </c>
+      <c r="G416"/>
+      <c r="H416"/>
+      <c r="I416"/>
+      <c r="J416"/>
+    </row>
+    <row r="417" spans="1:10">
+      <c r="A417" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D417" t="s">
+        <v>775</v>
+      </c>
+      <c r="E417">
         <v>27</v>
       </c>
-      <c r="F416">
-        <v>1334234234</v>
-      </c>
-      <c r="G416">
-        <v>2342342342</v>
-      </c>
-      <c r="H416">
-        <v>2342342342</v>
-      </c>
-      <c r="I416" t="s">
-        <v>14</v>
-      </c>
-      <c r="J416" t="s">
-        <v>1351</v>
-      </c>
+      <c r="F417">
+        <v>2223559984</v>
+      </c>
+      <c r="G417"/>
+      <c r="H417"/>
+      <c r="I417"/>
+      <c r="J417"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
